--- a/biology/Botanique/Aspidosperma/Aspidosperma.xlsx
+++ b/biology/Botanique/Aspidosperma/Aspidosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspidosperma est un genre de plantes à fleurs de la famille des Apocynacées. Ce sont des arbres et des arbustes originaires d'Amérique du Sud. Leurs feuilles sont généralement alternes, leurs petites fleurs sont réunies en cymes et leurs graines sont ailées.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot aspidosperma est formé à partir des deux mots grecs ἀσπίς (aspis, -idos), bouclier et σπέρμα (spérma), semence, graine.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Cette liste n'est pas exhaustive et pourrait inclure des synonymes.
 Aspidosperma acreanum Markgraf
